--- a/outputs/SORs/SOR Testing_PES NA Sales.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Sales.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -597,7 +597,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -666,7 +668,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -821,7 +825,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -866,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T2" s="10" t="n">
-        <v>0.1667</v>
+        <v>0.1818</v>
       </c>
       <c r="U2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="10" t="n">
-        <v>0.1575</v>
+        <v>0.1709</v>
       </c>
       <c r="W2" s="10" t="n">
-        <v>0.1681</v>
+        <v>0.1724</v>
       </c>
     </row>
     <row r="3">
@@ -892,7 +896,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -937,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="T3" s="10" t="n">
-        <v>0.15003</v>
+        <v>0.16362</v>
       </c>
       <c r="U3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="10" t="n">
-        <v>0.14175</v>
+        <v>0.15381</v>
       </c>
       <c r="W3" s="10" t="n">
-        <v>0.15129</v>
+        <v>0.15516</v>
       </c>
     </row>
     <row r="4">
@@ -963,7 +967,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -1263,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="11" t="n">
-        <v>0.0769</v>
+        <v>0.0667</v>
       </c>
       <c r="P2" s="11" t="n">
         <v>0</v>
@@ -1272,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="11" t="n">
-        <v>0.0769</v>
+        <v>0.0667</v>
       </c>
       <c r="S2" s="11" t="n">
         <v>0</v>
@@ -1287,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="11" t="n">
-        <v>0.0741</v>
+        <v>0.0645</v>
       </c>
     </row>
     <row r="3">
@@ -1334,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="11" t="n">
-        <v>0.06921</v>
+        <v>0.06003</v>
       </c>
       <c r="P3" s="11" t="n">
         <v>0</v>
@@ -1343,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="11" t="n">
-        <v>0.06921</v>
+        <v>0.06003</v>
       </c>
       <c r="S3" s="11" t="n">
         <v>0</v>
@@ -1358,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="11" t="n">
-        <v>0.06669</v>
+        <v>0.05805</v>
       </c>
     </row>
     <row r="4">
@@ -1640,7 +1644,9 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="12" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1681,7 +1687,9 @@
       <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="12" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2131,7 +2139,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2202,7 +2210,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2273,7 +2281,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -2459,31 +2467,31 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>0.0741</v>
+        <v>0.0833</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>0.037</v>
+        <v>0.0417</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>0.1111</v>
+        <v>0.125</v>
       </c>
       <c r="S2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="3" t="n">
-        <v>0.037</v>
+        <v>0.0417</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>0.0741</v>
+        <v>0.0833</v>
       </c>
       <c r="V2" s="3" t="n">
-        <v>0.1099</v>
+        <v>0.1235</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>0.2281</v>
+        <v>0.2575</v>
       </c>
     </row>
     <row r="3">
@@ -2530,31 +2538,31 @@
         <v>0</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>0.06669</v>
+        <v>0.07497</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>0.0333</v>
+        <v>0.03753</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>0.09999</v>
+        <v>0.1125</v>
       </c>
       <c r="S3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>0.0333</v>
+        <v>0.03753</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>0.06669</v>
+        <v>0.07497</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>0.09891</v>
+        <v>0.11115</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>0.20529</v>
+        <v>0.23175</v>
       </c>
     </row>
     <row r="4">
@@ -2952,25 +2960,25 @@
         <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
+        <v>0.0909</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.0909</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>0.0476</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="V2" s="4" t="n">
         <v>0.0952</v>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>0.0952</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.0526</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.1</v>
-      </c>
       <c r="W2" s="4" t="n">
-        <v>0.2186</v>
+        <v>0.2073</v>
       </c>
     </row>
     <row r="3">
@@ -3023,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
+        <v>0.08181</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.08181</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>0.04284</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="V3" s="4" t="n">
         <v>0.08568</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.08568</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.04734</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="W3" s="4" t="n">
-        <v>0.19674</v>
+        <v>0.18657</v>
       </c>
     </row>
     <row r="4">
@@ -3382,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="5" t="n">
-        <v>0.087</v>
+        <v>0.0833</v>
       </c>
       <c r="V2" s="5" t="n">
-        <v>0.087</v>
+        <v>0.0833</v>
       </c>
       <c r="W2" s="5" t="n">
-        <v>0.0901</v>
+        <v>0.0862</v>
       </c>
     </row>
     <row r="3">
@@ -3453,13 +3461,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="5" t="n">
-        <v>0.0783</v>
+        <v>0.07497</v>
       </c>
       <c r="V3" s="5" t="n">
-        <v>0.0783</v>
+        <v>0.07497</v>
       </c>
       <c r="W3" s="5" t="n">
-        <v>0.08109</v>
+        <v>0.07758</v>
       </c>
     </row>
     <row r="4">

--- a/outputs/SORs/SOR Testing_PES NA Sales.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Sales.xlsx
@@ -988,7 +988,7 @@
         <v>0.25</v>
       </c>
       <c r="L4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="10" t="n">
         <v>0.0833333333333333</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="11" t="n">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
       <c r="M4" s="11" t="n">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1688,7 +1688,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2139,7 +2139,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2210,7 +2210,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2281,7 +2281,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>0.0345</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>0</v>
@@ -2788,9 +2788,7 @@
       <c r="K7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="3" t="n">
-        <v>0.333333333333333</v>
-      </c>
+      <c r="L7" s="3"/>
       <c r="M7" s="3" t="n">
         <v>0.333333333333333</v>
       </c>
@@ -3087,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>0</v>
@@ -3689,9 +3687,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="5"/>
       <c r="M7" s="5" t="n">
         <v>1</v>
       </c>
@@ -3988,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M4" s="6" t="n">
         <v>0</v>
@@ -4446,7 +4442,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -4493,7 +4489,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -4564,7 +4560,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
@@ -4583,40 +4579,40 @@
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W7" s="7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -4945,9 +4941,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="L5" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="L5" s="8"/>
       <c r="M5" s="8" t="n">
         <v>1</v>
       </c>

--- a/outputs/SORs/SOR Testing_PES NA Sales.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Sales.xlsx
@@ -597,9 +597,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -668,9 +666,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -825,7 +821,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0</v>
+        <v>0.4255</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -896,7 +892,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0</v>
+        <v>0.4255</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -967,7 +963,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0</v>
+        <v>0.4255</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -991,37 +987,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0851</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0.25</v>
+        <v>0.2553</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0851</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0851</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0851</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.25</v>
+        <v>0.2553</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0851</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0851</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0851</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.25</v>
+        <v>0.2553</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>1</v>
+        <v>1.0212</v>
       </c>
     </row>
     <row r="5">
@@ -1237,7 +1233,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0</v>
+        <v>0.0781</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1308,7 +1304,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0</v>
+        <v>0.0781</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1379,7 +1375,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0</v>
+        <v>0.0781</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -1403,37 +1399,37 @@
         <v>0.0833</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0</v>
+        <v>0.0156166666666667</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0</v>
+        <v>0.04685</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0</v>
+        <v>0.0156166666666667</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0</v>
+        <v>0.0156166666666667</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0</v>
+        <v>0.0156166666666667</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0</v>
+        <v>0.04685</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0</v>
+        <v>0.0156166666666667</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0</v>
+        <v>0.0156166666666667</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0</v>
+        <v>0.0156166666666667</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0</v>
+        <v>0.04685</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0</v>
+        <v>0.1874</v>
       </c>
     </row>
     <row r="5">
@@ -1644,9 +1640,7 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="12" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="12"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1687,9 +1681,7 @@
       <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="12" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="12"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2139,7 +2131,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2210,7 +2202,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2281,7 +2273,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -2437,7 +2429,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0</v>
+        <v>0.0735</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2508,7 +2500,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0</v>
+        <v>0.0735</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2579,7 +2571,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0</v>
+        <v>0.0735</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -2603,37 +2595,37 @@
         <v>0.0345</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0</v>
+        <v>0.0441</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0</v>
+        <v>0.0441</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0</v>
+        <v>0.0441</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0</v>
+        <v>0.1764</v>
       </c>
     </row>
     <row r="5">
@@ -2922,7 +2914,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.0442</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2993,7 +2985,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>0.0442</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3064,7 +3056,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>0.0442</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -3088,37 +3080,37 @@
         <v>0.04</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>0.00884166666666667</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>0.026525</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>0.00884166666666667</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>0.00884166666666667</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>0.00884166666666667</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.026525</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.00884166666666667</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>0.00884166666666667</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>0.00884166666666667</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>0.026525</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>0.1061</v>
       </c>
     </row>
     <row r="5">
@@ -3340,7 +3332,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0</v>
+        <v>0.102</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3411,7 +3403,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0</v>
+        <v>0.102</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3482,7 +3474,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
+        <v>0.102</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -3506,37 +3498,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0</v>
+        <v>0.0204</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0</v>
+        <v>0.0612</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0</v>
+        <v>0.0204</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0</v>
+        <v>0.0204</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0</v>
+        <v>0.0204</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0</v>
+        <v>0.0612</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>0.0204</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0</v>
+        <v>0.0204</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0</v>
+        <v>0.0204</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0</v>
+        <v>0.0612</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>0</v>
+        <v>0.2448</v>
       </c>
     </row>
     <row r="5">
@@ -3821,7 +3813,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0</v>
+        <v>0.1852</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3892,7 +3884,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0</v>
+        <v>0.1852</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3963,7 +3955,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
+        <v>0.1852</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -3987,37 +3979,37 @@
         <v>0.1</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0</v>
+        <v>0.0370416666666667</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0</v>
+        <v>0.111125</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0</v>
+        <v>0.0370416666666667</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0</v>
+        <v>0.0370416666666667</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0</v>
+        <v>0.0370416666666667</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0</v>
+        <v>0.111125</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0</v>
+        <v>0.0370416666666667</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0</v>
+        <v>0.0370416666666667</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0</v>
+        <v>0.0370416666666667</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0</v>
+        <v>0.111125</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0</v>
+        <v>0.4445</v>
       </c>
     </row>
     <row r="5">
@@ -4714,7 +4706,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0</v>
+        <v>0.0602</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4785,7 +4777,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0</v>
+        <v>0.0602</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4856,7 +4848,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0</v>
+        <v>0.0602</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -4880,37 +4872,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0</v>
+        <v>0.0120416666666667</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0</v>
+        <v>0.036125</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0</v>
+        <v>0.0120416666666667</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0</v>
+        <v>0.0120416666666667</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0</v>
+        <v>0.0120416666666667</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0</v>
+        <v>0.036125</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0</v>
+        <v>0.0120416666666667</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0</v>
+        <v>0.0120416666666667</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0</v>
+        <v>0.0120416666666667</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0</v>
+        <v>0.036125</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0</v>
+        <v>0.1445</v>
       </c>
     </row>
     <row r="5">

--- a/outputs/SORs/SOR Testing_PES NA Sales.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Sales.xlsx
@@ -821,7 +821,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0.4255</v>
+        <v>1.6667</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -892,7 +892,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0.4255</v>
+        <v>1.6667</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -963,61 +963,59 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0.4255</v>
+        <v>1.6667</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="10" t="n">
-        <v>0.0909</v>
+        <v>0.25</v>
       </c>
       <c r="H4" s="10" t="n">
-        <v>0.1</v>
+        <v>0.3333</v>
       </c>
       <c r="I4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="10" t="n">
-        <v>0.1942</v>
+        <v>0.6061</v>
       </c>
       <c r="K4" s="10" t="n">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="L4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="M4" s="10" t="n">
-        <v>0.0851</v>
-      </c>
+      <c r="M4" s="10"/>
       <c r="N4" s="10" t="n">
-        <v>0.2553</v>
+        <v>2</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.0851</v>
+        <v>0.277783333333333</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.0851</v>
+        <v>0.277783333333333</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.0851</v>
+        <v>0.277783333333333</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.2553</v>
+        <v>0.83335</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.0851</v>
+        <v>0.277783333333333</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.0851</v>
+        <v>0.277783333333333</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.0851</v>
+        <v>0.277783333333333</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.2553</v>
+        <v>0.83335</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>1.0212</v>
+        <v>3.3334</v>
       </c>
     </row>
     <row r="5">
@@ -1233,7 +1231,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0.0781</v>
+        <v>0.1754</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1304,7 +1302,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0.0781</v>
+        <v>0.1754</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1375,7 +1373,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.0781</v>
+        <v>0.1754</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -1396,40 +1394,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="11" t="n">
-        <v>0.0833</v>
+        <v>0.2</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0.0156166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0.04685</v>
+        <v>0.1887</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0.0156166666666667</v>
+        <v>0.0292333333333333</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0.0156166666666667</v>
+        <v>0.0292333333333333</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0.0156166666666667</v>
+        <v>0.0292333333333333</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0.04685</v>
+        <v>0.0877</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0.0156166666666667</v>
+        <v>0.0292333333333333</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.0156166666666667</v>
+        <v>0.0292333333333333</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0.0156166666666667</v>
+        <v>0.0292333333333333</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0.04685</v>
+        <v>0.0877</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0.1874</v>
+        <v>0.3508</v>
       </c>
     </row>
     <row r="5">
@@ -2429,7 +2427,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.0735</v>
+        <v>0.0727</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2500,7 +2498,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.0735</v>
+        <v>0.0727</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2571,7 +2569,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0735</v>
+        <v>0.0727</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -2595,37 +2593,37 @@
         <v>0.0345</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.0147</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.0441</v>
+        <v>0.0345</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.0147</v>
+        <v>0.0121166666666667</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.0147</v>
+        <v>0.0121166666666667</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.0147</v>
+        <v>0.0121166666666667</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.0441</v>
+        <v>0.03635</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.0147</v>
+        <v>0.0121166666666667</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.0147</v>
+        <v>0.0121166666666667</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.0147</v>
+        <v>0.0121166666666667</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.0441</v>
+        <v>0.03635</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0.1764</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="5">
@@ -2781,11 +2779,9 @@
         <v>0</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="3" t="n">
-        <v>0.333333333333333</v>
-      </c>
+      <c r="M7" s="3"/>
       <c r="N7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
         <v>0.333333333333333</v>
@@ -2914,7 +2910,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.0442</v>
+        <v>0.1136</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2985,7 +2981,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.0442</v>
+        <v>0.1136</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3056,7 +3052,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.0442</v>
+        <v>0.1136</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -3077,40 +3073,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.00884166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.026525</v>
+        <v>0.1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.00884166666666667</v>
+        <v>0.0189333333333333</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.00884166666666667</v>
+        <v>0.0189333333333333</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.00884166666666667</v>
+        <v>0.0189333333333333</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.026525</v>
+        <v>0.0568</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.00884166666666667</v>
+        <v>0.0189333333333333</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.00884166666666667</v>
+        <v>0.0189333333333333</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.00884166666666667</v>
+        <v>0.0189333333333333</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.026525</v>
+        <v>0.0568</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.1061</v>
+        <v>0.2272</v>
       </c>
     </row>
     <row r="5">
@@ -3332,7 +3328,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.102</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3403,7 +3399,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.102</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3474,22 +3470,22 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.102</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.05</v>
+        <v>0.1429</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.0526</v>
+        <v>0.1667</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1036</v>
+        <v>0.3175</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0</v>
@@ -3498,37 +3494,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.0204</v>
+        <v>0.2</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0612</v>
+        <v>0.1754</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.0204</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.0204</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.0204</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.0612</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.0204</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.0204</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.0204</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.0612</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>0.2448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3680,12 +3676,8 @@
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="5" t="n">
         <v>1</v>
       </c>
@@ -3813,7 +3805,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.1852</v>
+        <v>0.2857</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3884,7 +3876,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.1852</v>
+        <v>0.2857</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3955,7 +3947,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.1852</v>
+        <v>0.2857</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -3979,37 +3971,37 @@
         <v>0.1</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.0370416666666667</v>
+        <v>0.1111</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.111125</v>
+        <v>0.2</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0370416666666667</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0370416666666667</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.0370416666666667</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.111125</v>
+        <v>0.14285</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0370416666666667</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0370416666666667</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0370416666666667</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.111125</v>
+        <v>0.14285</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4445</v>
+        <v>0.5714</v>
       </c>
     </row>
     <row r="5">
@@ -4434,7 +4426,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -4481,7 +4473,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -4552,7 +4544,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
@@ -4560,51 +4552,47 @@
       <c r="G7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.75</v>
+        <v>0.6667</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="7" t="n">
-        <v>0.6</v>
-      </c>
+      <c r="M7" s="7"/>
       <c r="N7" s="7" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -4706,7 +4694,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.0602</v>
+        <v>0.1538</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4777,7 +4765,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.0602</v>
+        <v>0.1538</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4848,7 +4836,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.0602</v>
+        <v>0.1538</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -4866,43 +4854,43 @@
         <v>0</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>0.0625</v>
+        <v>0.1667</v>
       </c>
       <c r="L4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0.0120416666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0.036125</v>
+        <v>0.1667</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.0120416666666667</v>
+        <v>0.0256333333333333</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.0120416666666667</v>
+        <v>0.0256333333333333</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.0120416666666667</v>
+        <v>0.0256333333333333</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.036125</v>
+        <v>0.0769</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.0120416666666667</v>
+        <v>0.0256333333333333</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.0120416666666667</v>
+        <v>0.0256333333333333</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.0120416666666667</v>
+        <v>0.0256333333333333</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.036125</v>
+        <v>0.0769</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0.1445</v>
+        <v>0.3076</v>
       </c>
     </row>
     <row r="5">
@@ -4934,12 +4922,8 @@
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
       <c r="O5" s="8" t="n">
         <v>1</v>
       </c>

--- a/outputs/SORs/SOR Testing_PES NA Sales.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Sales.xlsx
@@ -990,32 +990,30 @@
       <c r="N4" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="O4" s="10" t="n">
-        <v>0.277783333333333</v>
-      </c>
+      <c r="O4" s="10"/>
       <c r="P4" s="10" t="n">
-        <v>0.277783333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.277783333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.83335</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.277783333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.277783333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.277783333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.83335</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>3.3334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1231,7 +1229,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0.1754</v>
+        <v>0.625</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1302,7 +1300,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0.1754</v>
+        <v>0.625</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1373,7 +1371,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.1754</v>
+        <v>0.625</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -1394,40 +1392,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="11" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="11" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0.1887</v>
+        <v>0.7692</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0.0292333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0.0292333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0.0292333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0.0877</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0.0292333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.0292333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0.0292333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0.0877</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0.3508</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2018,7 +2016,9 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -2059,7 +2059,9 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -2126,64 +2128,48 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
       <c r="O7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -2203,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
@@ -2274,57 +2260,128 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2" t="n">
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2427,7 +2484,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.0727</v>
+        <v>0.9091</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2498,7 +2555,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.0727</v>
+        <v>0.9091</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2569,7 +2626,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0727</v>
+        <v>0.9091</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -2578,52 +2635,52 @@
         <v>0</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>0.04</v>
+        <v>0.3333</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.0385</v>
+        <v>0.2703</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0.0345</v>
+        <v>0.3333</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.0345</v>
+        <v>0.303</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.0121166666666667</v>
+        <v>0.5</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.0121166666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.0121166666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.03635</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.0121166666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.0121166666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.0121166666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.03635</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0.1454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2640,7 +2697,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -2689,7 +2746,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -2760,55 +2817,47 @@
         <v>31</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <v>0.6667</v>
-      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="n">
-        <v>0.333333333333333</v>
-      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
       <c r="P7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2910,7 +2959,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.1136</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2981,7 +3030,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.1136</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3052,17 +3101,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.1136</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="4" t="n">
         <v>0</v>
       </c>
@@ -3072,41 +3117,35 @@
       <c r="K4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
       <c r="N4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.0189333333333333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O4" s="4"/>
       <c r="P4" s="4" t="n">
-        <v>0.0189333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.0189333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.0568</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.0189333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.0189333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.0189333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.0568</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.2272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3328,7 +3367,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5789</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3399,7 +3438,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5789</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3470,22 +3509,22 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5789</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.1429</v>
+        <v>0.3333</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.1667</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3175</v>
+        <v>0.8696</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0</v>
@@ -3494,13 +3533,13 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1754</v>
+        <v>0.5882</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="5" t="n">
         <v>0.0833333333333333</v>
@@ -3540,9 +3579,7 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -3589,9 +3626,7 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="E6" s="5"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -3645,65 +3680,6 @@
       </c>
       <c r="W6" s="5" t="n">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3805,7 +3781,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.2857</v>
+        <v>0.2913</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3876,7 +3852,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.2857</v>
+        <v>0.2913</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3947,7 +3923,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.2857</v>
+        <v>0.2913</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -3977,31 +3953,31 @@
         <v>0.2</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0476166666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0476166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.0476166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.14285</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0476166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0476166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0476166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.14285</v>
+        <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4426,7 +4402,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.5</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -4473,7 +4449,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0.5</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -4544,22 +4520,24 @@
         <v>31</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>1</v>
+        <v>0.8333</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="K7" s="7"/>
+        <v>0.625</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="L7" s="7" t="n">
         <v>0</v>
       </c>
@@ -4568,31 +4546,31 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="W7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.545454545454545</v>
       </c>
     </row>
   </sheetData>
@@ -4694,7 +4672,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.1538</v>
+        <v>0.1562</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4765,7 +4743,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.1538</v>
+        <v>0.1562</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4836,7 +4814,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.1538</v>
+        <v>0.1562</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -4866,31 +4844,31 @@
         <v>0.1667</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.0256333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.0256333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.0256333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.0769</v>
+        <v>0</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.0256333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.0256333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.0256333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.0769</v>
+        <v>0</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0.3076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4924,9 +4902,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="8"/>
       <c r="P5" s="8" t="n">
         <v>1</v>
       </c>
